--- a/database/industries/siman/sehegmat/product/quarterly.xlsx
+++ b/database/industries/siman/sehegmat/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4822481-A28E-4C77-939D-4274759A3860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F668C-FC4B-49EC-A2AA-DD998D937995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/04</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/01</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/04</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/07</t>
@@ -58,10 +73,10 @@
     <t>تن</t>
   </si>
   <si>
-    <t>سیمان</t>
+    <t>-</t>
   </si>
   <si>
-    <t>-</t>
+    <t>سیمان</t>
   </si>
   <si>
     <t>سیمان فله</t>
@@ -613,16 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I153"/>
+  <dimension ref="B1:N153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -631,8 +646,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,8 +663,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,8 +680,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -665,8 +695,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -677,8 +712,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -689,8 +729,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,8 +744,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -721,8 +771,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -731,484 +796,789 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>105058</v>
+      </c>
+      <c r="F10" s="9">
+        <v>227015</v>
+      </c>
+      <c r="G10" s="9">
+        <v>85765</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>202574</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>114454</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>108194</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>165738</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>94359</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11">
         <v>274334</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>409361</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>361563</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>127338</v>
+      </c>
+      <c r="F12" s="9">
+        <v>205297</v>
+      </c>
+      <c r="G12" s="9">
+        <v>211651</v>
+      </c>
+      <c r="H12" s="9">
+        <v>392329</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
         <v>601060</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>-120795</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>175741</v>
+      </c>
+      <c r="F13" s="11">
+        <v>169578</v>
+      </c>
+      <c r="G13" s="11">
+        <v>103203</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>425714</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>-66706</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="9">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9">
         <v>523037</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
+        <v>408137</v>
+      </c>
+      <c r="F29" s="13">
+        <v>601890</v>
+      </c>
+      <c r="G29" s="13">
+        <v>400619</v>
+      </c>
+      <c r="H29" s="13">
+        <v>392329</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
         <v>1229348</v>
       </c>
-      <c r="F29" s="13">
+      <c r="K29" s="13">
         <v>449990</v>
       </c>
-      <c r="G29" s="13">
+      <c r="L29" s="13">
         <v>382528</v>
       </c>
-      <c r="H29" s="13">
+      <c r="M29" s="13">
         <v>575099</v>
       </c>
-      <c r="I29" s="13">
+      <c r="N29" s="13">
         <v>455922</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1217,8 +1587,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1227,8 +1602,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1237,10 +1617,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1259,8 +1644,23 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1269,536 +1669,871 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>105058</v>
+      </c>
+      <c r="F35" s="9">
+        <v>227015</v>
+      </c>
+      <c r="G35" s="9">
+        <v>85765</v>
+      </c>
+      <c r="H35" s="9">
+        <v>100324</v>
+      </c>
+      <c r="I35" s="9">
+        <v>53365</v>
+      </c>
+      <c r="J35" s="9">
         <v>48885</v>
       </c>
-      <c r="F35" s="9">
+      <c r="K35" s="9">
         <v>114454</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>108194</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>165738</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>94359</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="9">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="9">
         <v>272083</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>408461</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>326075</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>232900</v>
+      </c>
+      <c r="F39" s="9">
+        <v>202147</v>
+      </c>
+      <c r="G39" s="9">
+        <v>219151</v>
+      </c>
+      <c r="H39" s="9">
+        <v>240906</v>
+      </c>
+      <c r="I39" s="9">
+        <v>144489</v>
+      </c>
+      <c r="J39" s="9">
         <v>199840</v>
       </c>
-      <c r="F39" s="9">
+      <c r="K39" s="9">
         <v>-116798</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>175740</v>
+      </c>
+      <c r="F40" s="11">
+        <v>169578</v>
+      </c>
+      <c r="G40" s="11">
+        <v>103203</v>
+      </c>
+      <c r="H40" s="11">
+        <v>146623</v>
+      </c>
+      <c r="I40" s="11">
+        <v>131593</v>
+      </c>
+      <c r="J40" s="11">
         <v>147498</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>-66706</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>13</v>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1817,126 +2552,216 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="9">
+        <v>17</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="9">
         <v>519943</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>513698</v>
+      </c>
+      <c r="F62" s="13">
+        <v>598740</v>
+      </c>
+      <c r="G62" s="13">
+        <v>408119</v>
+      </c>
+      <c r="H62" s="13">
+        <v>487853</v>
+      </c>
+      <c r="I62" s="13">
+        <v>329447</v>
+      </c>
+      <c r="J62" s="13">
         <v>396223</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>450893</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>380277</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>574199</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>420434</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1945,8 +2770,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1955,8 +2785,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1965,10 +2800,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1987,8 +2827,23 @@
       <c r="I66" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1997,548 +2852,883 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>202388</v>
+      </c>
+      <c r="F68" s="9">
+        <v>729415</v>
+      </c>
+      <c r="G68" s="9">
+        <v>211515</v>
+      </c>
+      <c r="H68" s="9">
+        <v>354215</v>
+      </c>
+      <c r="I68" s="9">
+        <v>258065</v>
+      </c>
+      <c r="J68" s="9">
         <v>245276</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>617758</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>601817</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>1045200</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>724393</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="9">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9">
         <v>1273487</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>2564981</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>2129791</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>419319</v>
+      </c>
+      <c r="F72" s="9">
+        <v>450998</v>
+      </c>
+      <c r="G72" s="9">
+        <v>477140</v>
+      </c>
+      <c r="H72" s="9">
+        <v>537029</v>
+      </c>
+      <c r="I72" s="9">
+        <v>450616</v>
+      </c>
+      <c r="J72" s="9">
         <v>721078</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>-433749</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>488182</v>
+      </c>
+      <c r="F73" s="11">
+        <v>368437</v>
+      </c>
+      <c r="G73" s="11">
+        <v>320050</v>
+      </c>
+      <c r="H73" s="11">
+        <v>479939</v>
+      </c>
+      <c r="I73" s="11">
+        <v>573877</v>
+      </c>
+      <c r="J73" s="11">
         <v>719854</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>-326255</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>13</v>
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
-        <v>0</v>
+        <v>-100156</v>
       </c>
       <c r="F90" s="9">
-        <v>0</v>
+        <v>100156</v>
       </c>
       <c r="G90" s="9">
         <v>0</v>
@@ -2549,126 +3739,216 @@
       <c r="I90" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="9">
+        <v>0</v>
+      </c>
+      <c r="K90" s="9">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9">
+        <v>0</v>
+      </c>
+      <c r="M90" s="9">
+        <v>0</v>
+      </c>
+      <c r="N90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="9">
+        <v>17</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="9">
         <v>2060816</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>1009733</v>
+      </c>
+      <c r="F95" s="13">
+        <v>1649006</v>
+      </c>
+      <c r="G95" s="13">
+        <v>1008705</v>
+      </c>
+      <c r="H95" s="13">
+        <v>1371183</v>
+      </c>
+      <c r="I95" s="13">
+        <v>1282558</v>
+      </c>
+      <c r="J95" s="13">
         <v>1686208</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>1918570</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>1875304</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>3610181</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>2854184</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2677,8 +3957,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2687,8 +3972,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2697,10 +3987,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2719,8 +4014,23 @@
       <c r="I99" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2729,656 +4039,1066 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>1677541</v>
+      </c>
+      <c r="F101" s="9">
+        <v>3213070</v>
+      </c>
+      <c r="G101" s="9">
+        <v>2526279</v>
+      </c>
+      <c r="H101" s="9">
+        <v>3530711</v>
+      </c>
+      <c r="I101" s="9">
+        <v>3983890</v>
+      </c>
+      <c r="J101" s="9">
         <v>4233297</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>4653576</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>5562388</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>6012503</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>6438957</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="9">
+        <v>17</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" s="9">
         <v>4680509</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>5640294</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>5929015</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>1716551</v>
+      </c>
+      <c r="F105" s="9">
+        <v>2231040</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1977981</v>
+      </c>
+      <c r="H105" s="9">
+        <v>2229206</v>
+      </c>
+      <c r="I105" s="9">
+        <v>2562682</v>
+      </c>
+      <c r="J105" s="9">
         <v>2919721</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>2721762</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>2506818</v>
+      </c>
+      <c r="F106" s="11">
+        <v>2172670</v>
+      </c>
+      <c r="G106" s="11">
+        <v>2515340</v>
+      </c>
+      <c r="H106" s="11">
+        <v>3273286</v>
+      </c>
+      <c r="I106" s="11">
+        <v>3787762</v>
+      </c>
+      <c r="J106" s="11">
         <v>4166342</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>4031707</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N123" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N125" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="9">
+        <v>17</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="9">
         <v>3963542</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3387,8 +5107,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3397,8 +5122,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3407,10 +5137,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3429,8 +5164,23 @@
       <c r="I131" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3439,133 +5189,213 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>-73082</v>
+      </c>
+      <c r="F133" s="9">
+        <v>-180547</v>
+      </c>
+      <c r="G133" s="9">
+        <v>-58508</v>
+      </c>
+      <c r="H133" s="9">
+        <v>-230041</v>
+      </c>
+      <c r="I133" s="9">
+        <v>85355</v>
+      </c>
+      <c r="J133" s="9">
         <v>-201381</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>-82864</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>-189250</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>-275884</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>-254253</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="11">
+        <v>17</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L134" s="11">
         <v>-687218</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>-979378</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>-983984</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>-183830</v>
+      </c>
+      <c r="F135" s="9">
+        <v>-187974</v>
+      </c>
+      <c r="G135" s="9">
+        <v>-179796</v>
+      </c>
+      <c r="H135" s="9">
+        <v>-236292</v>
+      </c>
+      <c r="I135" s="9">
+        <v>-178744</v>
+      </c>
+      <c r="J135" s="9">
         <v>-375307</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>69484</v>
       </c>
-      <c r="G135" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>-222698</v>
+      </c>
+      <c r="F136" s="11">
+        <v>-284842</v>
+      </c>
+      <c r="G136" s="11">
+        <v>-190617</v>
+      </c>
+      <c r="H136" s="11">
+        <v>-286154</v>
+      </c>
+      <c r="I136" s="11">
+        <v>-291083</v>
+      </c>
+      <c r="J136" s="11">
         <v>-279778</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>83275</v>
       </c>
-      <c r="G136" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I136" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L136" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N136" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>13</v>
+      <c r="E137" s="9">
+        <v>0</v>
+      </c>
+      <c r="F137" s="9">
+        <v>0</v>
+      </c>
+      <c r="G137" s="9">
+        <v>0</v>
+      </c>
+      <c r="H137" s="9">
+        <v>0</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
@@ -3583,54 +5413,99 @@
       <c r="I138" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="11">
+        <v>0</v>
+      </c>
+      <c r="K138" s="11">
+        <v>0</v>
+      </c>
+      <c r="L138" s="11">
+        <v>0</v>
+      </c>
+      <c r="M138" s="11">
+        <v>0</v>
+      </c>
+      <c r="N138" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="9">
+        <v>17</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="9">
         <v>-1107823</v>
       </c>
-      <c r="G139" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13">
+        <v>-479610</v>
+      </c>
+      <c r="F140" s="13">
+        <v>-653363</v>
+      </c>
+      <c r="G140" s="13">
+        <v>-428921</v>
+      </c>
+      <c r="H140" s="13">
+        <v>-752487</v>
+      </c>
+      <c r="I140" s="13">
+        <v>-384472</v>
+      </c>
+      <c r="J140" s="13">
         <v>-856466</v>
       </c>
-      <c r="F140" s="13">
+      <c r="K140" s="13">
         <v>-1037928</v>
       </c>
-      <c r="G140" s="13">
+      <c r="L140" s="13">
         <v>-876468</v>
       </c>
-      <c r="H140" s="13">
+      <c r="M140" s="13">
         <v>-1255262</v>
       </c>
-      <c r="I140" s="13">
+      <c r="N140" s="13">
         <v>-1238237</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3639,8 +5514,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3649,8 +5529,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3659,10 +5544,15 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3681,8 +5571,23 @@
       <c r="I144" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3691,140 +5596,220 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
+        <v>129306</v>
+      </c>
+      <c r="F146" s="9">
+        <v>548868</v>
+      </c>
+      <c r="G146" s="9">
+        <v>153007</v>
+      </c>
+      <c r="H146" s="9">
+        <v>124174</v>
+      </c>
+      <c r="I146" s="9">
+        <v>343420</v>
+      </c>
+      <c r="J146" s="9">
         <v>43895</v>
       </c>
-      <c r="F146" s="9">
+      <c r="K146" s="9">
         <v>534894</v>
       </c>
-      <c r="G146" s="9">
+      <c r="L146" s="9">
         <v>412567</v>
       </c>
-      <c r="H146" s="9">
+      <c r="M146" s="9">
         <v>769316</v>
       </c>
-      <c r="I146" s="9">
+      <c r="N146" s="9">
         <v>470140</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="11">
+        <v>17</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L147" s="11">
         <v>586269</v>
       </c>
-      <c r="H147" s="11">
+      <c r="M147" s="11">
         <v>1585603</v>
       </c>
-      <c r="I147" s="11">
+      <c r="N147" s="11">
         <v>1145807</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
+        <v>235489</v>
+      </c>
+      <c r="F148" s="9">
+        <v>263024</v>
+      </c>
+      <c r="G148" s="9">
+        <v>297344</v>
+      </c>
+      <c r="H148" s="9">
+        <v>300737</v>
+      </c>
+      <c r="I148" s="9">
+        <v>271872</v>
+      </c>
+      <c r="J148" s="9">
         <v>345771</v>
       </c>
-      <c r="F148" s="9">
+      <c r="K148" s="9">
         <v>-364265</v>
       </c>
-      <c r="G148" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
+        <v>265484</v>
+      </c>
+      <c r="F149" s="11">
+        <v>83595</v>
+      </c>
+      <c r="G149" s="11">
+        <v>129433</v>
+      </c>
+      <c r="H149" s="11">
+        <v>193785</v>
+      </c>
+      <c r="I149" s="11">
+        <v>282794</v>
+      </c>
+      <c r="J149" s="11">
         <v>440076</v>
       </c>
-      <c r="F149" s="11">
+      <c r="K149" s="11">
         <v>-242980</v>
       </c>
-      <c r="G149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N149" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D150" s="9"/>
-      <c r="E150" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>13</v>
+      <c r="E150" s="9">
+        <v>0</v>
+      </c>
+      <c r="F150" s="9">
+        <v>0</v>
+      </c>
+      <c r="G150" s="9">
+        <v>0</v>
+      </c>
+      <c r="H150" s="9">
+        <v>0</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
-        <v>0</v>
+        <v>-100156</v>
       </c>
       <c r="F151" s="11">
-        <v>0</v>
+        <v>100156</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -3835,50 +5820,95 @@
       <c r="I151" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="11">
+        <v>0</v>
+      </c>
+      <c r="K151" s="11">
+        <v>0</v>
+      </c>
+      <c r="L151" s="11">
+        <v>0</v>
+      </c>
+      <c r="M151" s="11">
+        <v>0</v>
+      </c>
+      <c r="N151" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="9">
+        <v>17</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" s="9">
         <v>952993</v>
       </c>
-      <c r="G152" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N152" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13">
+        <v>530123</v>
+      </c>
+      <c r="F153" s="13">
+        <v>995643</v>
+      </c>
+      <c r="G153" s="13">
+        <v>579784</v>
+      </c>
+      <c r="H153" s="13">
+        <v>618696</v>
+      </c>
+      <c r="I153" s="13">
+        <v>898086</v>
+      </c>
+      <c r="J153" s="13">
         <v>829742</v>
       </c>
-      <c r="F153" s="13">
+      <c r="K153" s="13">
         <v>880642</v>
       </c>
-      <c r="G153" s="13">
+      <c r="L153" s="13">
         <v>998836</v>
       </c>
-      <c r="H153" s="13">
+      <c r="M153" s="13">
         <v>2354919</v>
       </c>
-      <c r="I153" s="13">
+      <c r="N153" s="13">
         <v>1615947</v>
       </c>
     </row>
